--- a/doc/excel转html工具对比.xlsx
+++ b/doc/excel转html工具对比.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="12540"/>
+    <workbookView windowWidth="28125" windowHeight="12540" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="79">
   <si>
     <t>aspose</t>
   </si>
@@ -115,6 +116,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <i/>
+        <sz val="13.5"/>
+        <color rgb="FF629755"/>
+        <rFont val="標楷體"/>
+        <charset val="134"/>
+      </rPr>
       <t>免费</t>
     </r>
     <r>
@@ -225,6 +233,15 @@
     <t>https://www.e-iceblue.com/Buy/Spire.XLS-java.html</t>
   </si>
   <si>
+    <t>自定义实现</t>
+  </si>
+  <si>
+    <t>图形不能导出成html</t>
+  </si>
+  <si>
+    <t>样式会有出入</t>
+  </si>
+  <si>
     <t>Description</t>
   </si>
   <si>
@@ -295,6 +312,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Developer Subscription</t>
     </r>
     <r>
@@ -327,18 +351,51 @@
   <si>
     <t>&lt;=50</t>
   </si>
+  <si>
+    <t>转换格式</t>
+  </si>
+  <si>
+    <t>支持内容</t>
+  </si>
+  <si>
+    <t>自定义</t>
+  </si>
+  <si>
+    <t>html</t>
+  </si>
+  <si>
+    <t>图形，图表</t>
+  </si>
+  <si>
+    <t>支持</t>
+  </si>
+  <si>
+    <t>不支持</t>
+  </si>
+  <si>
+    <t>图片</t>
+  </si>
+  <si>
+    <t>样式</t>
+  </si>
+  <si>
+    <t>部分支持</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="26" formatCode="\$#,##0.00_);[Red]\(\$#,##0.00\)"/>
+    <numFmt numFmtId="24" formatCode="\$#,##0_);[Red]\(\$#,##0\)"/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="26" formatCode="\$#,##0.00_);[Red]\(\$#,##0.00\)"/>
-    <numFmt numFmtId="24" formatCode="\$#,##0_);[Red]\(\$#,##0\)"/>
   </numFmts>
   <fonts count="35">
     <font>
@@ -444,6 +501,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -452,22 +517,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -481,8 +531,61 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -502,11 +605,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -519,39 +622,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -559,21 +631,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -610,6 +667,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -646,7 +709,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -658,186 +739,162 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="11">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -861,6 +918,43 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color rgb="FFCCCCCC"/>
       </left>
@@ -876,26 +970,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -932,6 +1026,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -939,17 +1044,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -962,17 +1067,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -981,10 +1075,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -993,16 +1087,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1011,128 +1105,140 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="10" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1142,43 +1248,46 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="24" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="24" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1187,7 +1296,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="24" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="24" fontId="9" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1200,9 +1309,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="26" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1266,53 +1372,42 @@
 </styleSheet>
 </file>
 
-<file path=xl/activeX/activeX1.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{00000000-0000-0000-0000-000000000000}" r:id="rId1" ax:persistence="persistStreamInit"/>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>17</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>2219325</xdr:colOff>
-          <xdr:row>18</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp>
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2050" name="Host Control  2" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2050"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="3590925" y="2981325"/>
-              <a:ext cx="2219325" cy="171450"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2219325</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2050" name="Host Control  2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3590925" y="2981325"/>
+          <a:ext cx="2219325" cy="171450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1346,7 +1441,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3133725" y="1771650"/>
+          <a:off x="3133725" y="1028700"/>
           <a:ext cx="171450" cy="171450"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1388,7 +1483,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6267450" y="1771650"/>
+          <a:off x="6267450" y="1028700"/>
           <a:ext cx="171450" cy="171450"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1430,7 +1525,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9677400" y="1771650"/>
+          <a:off x="9677400" y="1028700"/>
           <a:ext cx="171450" cy="171450"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1472,7 +1567,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3133725" y="2390775"/>
+          <a:off x="3133725" y="1343025"/>
           <a:ext cx="171450" cy="171450"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1514,7 +1609,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6267450" y="2390775"/>
+          <a:off x="6267450" y="1343025"/>
           <a:ext cx="171450" cy="171450"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1556,7 +1651,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9677400" y="2390775"/>
+          <a:off x="9677400" y="1343025"/>
           <a:ext cx="171450" cy="171450"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1598,7 +1693,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7981950" y="3009900"/>
+          <a:off x="7981950" y="1657350"/>
           <a:ext cx="171450" cy="171450"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1640,7 +1735,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9677400" y="3009900"/>
+          <a:off x="9677400" y="1657350"/>
           <a:ext cx="171450" cy="171450"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1682,7 +1777,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1657350" y="4248150"/>
+          <a:off x="1657350" y="2152650"/>
           <a:ext cx="171450" cy="171450"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1724,7 +1819,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3133725" y="4248150"/>
+          <a:off x="3133725" y="2152650"/>
           <a:ext cx="171450" cy="171450"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1766,7 +1861,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4705350" y="4248150"/>
+          <a:off x="4705350" y="2152650"/>
           <a:ext cx="171450" cy="171450"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1808,7 +1903,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6267450" y="4248150"/>
+          <a:off x="6267450" y="2152650"/>
           <a:ext cx="171450" cy="171450"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1850,7 +1945,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7981950" y="4248150"/>
+          <a:off x="7981950" y="2152650"/>
           <a:ext cx="171450" cy="171450"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1892,7 +1987,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9677400" y="4248150"/>
+          <a:off x="9677400" y="2152650"/>
           <a:ext cx="171450" cy="171450"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1934,7 +2029,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1657350" y="5019675"/>
+          <a:off x="1657350" y="2466975"/>
           <a:ext cx="171450" cy="171450"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1976,7 +2071,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3133725" y="5019675"/>
+          <a:off x="3133725" y="2466975"/>
           <a:ext cx="171450" cy="171450"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2018,7 +2113,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4705350" y="5019675"/>
+          <a:off x="4705350" y="2466975"/>
           <a:ext cx="171450" cy="171450"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2060,7 +2155,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6267450" y="5019675"/>
+          <a:off x="6267450" y="2466975"/>
           <a:ext cx="171450" cy="171450"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2102,7 +2197,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7981950" y="5019675"/>
+          <a:off x="7981950" y="2466975"/>
           <a:ext cx="171450" cy="171450"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2144,7 +2239,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9677400" y="5019675"/>
+          <a:off x="9677400" y="2466975"/>
           <a:ext cx="171450" cy="171450"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2186,7 +2281,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1657350" y="5943600"/>
+          <a:off x="1657350" y="2781300"/>
           <a:ext cx="171450" cy="171450"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2228,7 +2323,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3133725" y="5943600"/>
+          <a:off x="3133725" y="2781300"/>
           <a:ext cx="171450" cy="171450"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2270,7 +2365,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4705350" y="5943600"/>
+          <a:off x="4705350" y="2781300"/>
           <a:ext cx="171450" cy="171450"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2312,7 +2407,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6267450" y="5943600"/>
+          <a:off x="6267450" y="2781300"/>
           <a:ext cx="171450" cy="171450"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2354,7 +2449,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7981950" y="5943600"/>
+          <a:off x="7981950" y="2781300"/>
           <a:ext cx="171450" cy="171450"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2396,7 +2491,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9677400" y="5943600"/>
+          <a:off x="9677400" y="2781300"/>
           <a:ext cx="171450" cy="171450"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2438,7 +2533,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1657350" y="6715125"/>
+          <a:off x="1657350" y="3095625"/>
           <a:ext cx="171450" cy="171450"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2480,7 +2575,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3133725" y="6715125"/>
+          <a:off x="3133725" y="3095625"/>
           <a:ext cx="171450" cy="171450"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2522,7 +2617,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4705350" y="6715125"/>
+          <a:off x="4705350" y="3095625"/>
           <a:ext cx="171450" cy="171450"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2564,7 +2659,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6267450" y="6715125"/>
+          <a:off x="6267450" y="3095625"/>
           <a:ext cx="171450" cy="171450"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2606,7 +2701,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7981950" y="6715125"/>
+          <a:off x="7981950" y="3095625"/>
           <a:ext cx="171450" cy="171450"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2648,7 +2743,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9677400" y="6715125"/>
+          <a:off x="9677400" y="3095625"/>
           <a:ext cx="171450" cy="171450"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2923,10 +3018,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C1:F29"/>
+  <dimension ref="C1:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I34" sqref="I34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -2942,77 +3037,77 @@
       </c>
     </row>
     <row r="2" spans="3:6">
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="F2" s="21" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="3:6">
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="18">
+      <c r="E3" s="23">
         <v>999</v>
       </c>
-      <c r="F3" s="19" t="s">
+      <c r="F3" s="24" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="3:6">
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="D4" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="21">
+      <c r="E4" s="26">
         <v>2997</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F4" s="22" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="3:6">
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="18">
+      <c r="E5" s="23">
         <v>4995</v>
       </c>
-      <c r="F5" s="17" t="s">
+      <c r="F5" s="22" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" spans="3:6">
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="18">
+      <c r="E6" s="23">
         <v>13986</v>
       </c>
-      <c r="F6" s="19" t="s">
+      <c r="F6" s="24" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="8" ht="18.75" spans="3:3">
-      <c r="C8" s="22" t="s">
+      <c r="C8" s="27" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3025,7 +3120,7 @@
       <c r="C11" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="23" t="s">
+      <c r="D11" s="28" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3035,82 +3130,82 @@
       </c>
     </row>
     <row r="19" spans="3:6">
-      <c r="C19" s="16" t="s">
+      <c r="C19" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="D19" s="16" t="s">
+      <c r="D19" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="E19" s="16" t="s">
+      <c r="E19" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="F19" s="16" t="s">
+      <c r="F19" s="21" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="20" ht="18" spans="3:6">
-      <c r="C20" s="17" t="s">
+      <c r="C20" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="17" t="s">
+      <c r="D20" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="E20" s="24">
+      <c r="E20" s="29">
         <v>799</v>
       </c>
-      <c r="F20" s="17" t="s">
+      <c r="F20" s="22" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="21" ht="18" spans="3:6">
-      <c r="C21" s="20" t="s">
+      <c r="C21" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="D21" s="20" t="s">
+      <c r="D21" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E21" s="25">
+      <c r="E21" s="30">
         <v>2499</v>
       </c>
-      <c r="F21" s="17" t="s">
+      <c r="F21" s="22" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="22" ht="18" spans="3:6">
-      <c r="C22" s="17" t="s">
+      <c r="C22" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="D22" s="17" t="s">
+      <c r="D22" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="E22" s="24">
+      <c r="E22" s="29">
         <v>3840</v>
       </c>
-      <c r="F22" s="17" t="s">
+      <c r="F22" s="22" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="23" ht="18" spans="3:6">
-      <c r="C23" s="17" t="s">
+      <c r="C23" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="D23" s="17" t="s">
+      <c r="D23" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="E23" s="24">
+      <c r="E23" s="29">
         <v>12088</v>
       </c>
-      <c r="F23" s="17" t="s">
+      <c r="F23" s="22" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="25" ht="18.75" spans="3:3">
-      <c r="C25" s="22" t="s">
+      <c r="C25" s="27" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="26" ht="18.75" spans="3:3">
-      <c r="C26" s="26" t="s">
+      <c r="C26" s="27" t="s">
         <v>32</v>
       </c>
     </row>
@@ -3128,45 +3223,32 @@
       <c r="C29" t="s">
         <v>19</v>
       </c>
-      <c r="D29" s="23" t="s">
+      <c r="D29" s="28" t="s">
         <v>34</v>
+      </c>
+    </row>
+    <row r="34" spans="3:3">
+      <c r="C34" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="35" spans="3:3">
+      <c r="C35" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="36" spans="3:3">
+      <c r="C36" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D11" r:id="rId4" display="https://purchase.aspose.com/policies/license-types/"/>
+    <hyperlink ref="D11" r:id="rId2" display="https://purchase.aspose.com/policies/license-types/"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-  <controls>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2050" r:id="rId3">
-          <controlPr defaultSize="0">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>17</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>2219325</xdr:colOff>
-                <xdr:row>18</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2050" r:id="rId3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-  </controls>
 </worksheet>
 </file>
 
@@ -3191,176 +3273,176 @@
   </cols>
   <sheetData>
     <row r="1" ht="17.25" spans="1:1">
-      <c r="A1" s="6"/>
-    </row>
-    <row r="2" ht="36.75" spans="1:7">
-      <c r="A2" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D2" s="8" t="s">
+      <c r="A1" s="11"/>
+    </row>
+    <row r="2" ht="24.75" spans="1:7">
+      <c r="A2" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="B2" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="C2" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="D2" s="13" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="3" ht="36.75" spans="1:7">
-      <c r="A3" s="10" t="s">
+      <c r="E2" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="11">
+      <c r="F2" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" ht="14.25" spans="1:7">
+      <c r="A3" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="16">
         <v>1</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="17">
         <v>1</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="16">
         <v>10</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="16">
         <v>10</v>
       </c>
-      <c r="F3" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" ht="48.75" spans="1:7">
-      <c r="A4" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B4" s="11">
+      <c r="F3" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" ht="24.75" spans="1:7">
+      <c r="A4" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="16">
         <v>1</v>
       </c>
-      <c r="C4" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="D4" s="11">
+      <c r="C4" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="16">
         <v>10</v>
       </c>
-      <c r="E4" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" ht="48.75" spans="1:7">
-      <c r="A5" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="14"/>
-    </row>
-    <row r="6" ht="48.75" spans="1:7">
-      <c r="A6" s="10" t="s">
+      <c r="E4" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="B6" s="13"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="14"/>
-    </row>
-    <row r="7" ht="72.75" spans="1:7">
-      <c r="A7" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-    </row>
-    <row r="8" ht="24.75" spans="1:7">
-      <c r="A8" s="10" t="s">
+      <c r="F4" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="G4" s="16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" ht="24.75" spans="1:7">
+      <c r="A5" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B5" s="18"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="19"/>
+    </row>
+    <row r="6" ht="24.75" spans="1:7">
+      <c r="A6" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="C8" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="F8" s="11" t="s">
+      <c r="B6" s="18"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="19"/>
+    </row>
+    <row r="7" ht="24.75" spans="1:7">
+      <c r="A7" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="G8" s="11" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" ht="60.75" spans="1:7">
-      <c r="A9" s="10" t="s">
+      <c r="B7" s="15"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+    </row>
+    <row r="8" ht="14.25" spans="1:7">
+      <c r="A8" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-    </row>
-    <row r="10" ht="72.75" spans="1:7">
-      <c r="A10" s="10" t="s">
+      <c r="B8" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-    </row>
-    <row r="11" ht="60.75" spans="1:7">
-      <c r="A11" s="10" t="s">
+      <c r="C8" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-    </row>
-    <row r="12" ht="36.75" spans="1:7">
-      <c r="A12" s="10" t="s">
+      <c r="G8" s="16" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" ht="24.75" spans="1:7">
+      <c r="A9" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+    </row>
+    <row r="10" ht="24.75" spans="1:7">
+      <c r="A10" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+    </row>
+    <row r="11" ht="24.75" spans="1:7">
+      <c r="A11" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+    </row>
+    <row r="12" ht="14.25" spans="1:7">
+      <c r="A12" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -3383,86 +3465,182 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="3"/>
   <cols>
+    <col min="1" max="1" width="15.625" customWidth="1"/>
     <col min="2" max="2" width="23.375" customWidth="1"/>
     <col min="3" max="3" width="22.125" customWidth="1"/>
     <col min="4" max="4" width="26.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27" spans="1:4">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>57</v>
+    <row r="1" spans="1:4">
+      <c r="A1" s="6"/>
+      <c r="B1" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="2" ht="81" spans="1:4">
-      <c r="A2" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B2" s="3">
+      <c r="A2" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="8">
         <v>1</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="8">
         <v>1</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>59</v>
+      <c r="D2" s="9" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="3" ht="54" spans="1:4">
-      <c r="A3" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B3" s="3">
+      <c r="A3" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" s="8">
         <v>1</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>59</v>
+      <c r="C3" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="4" ht="67.5" spans="1:4">
-      <c r="A4" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B4" s="4" t="s">
+      <c r="A4" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="5" t="s">
+    </row>
+    <row r="5" ht="67.5" spans="1:4">
+      <c r="A5" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="5" ht="67.5" spans="1:4">
-      <c r="A5" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>59</v>
+      <c r="D5" s="9" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B1:F6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="5"/>
+  <cols>
+    <col min="3" max="3" width="13.75" customWidth="1"/>
+    <col min="4" max="4" width="12" customWidth="1"/>
+    <col min="5" max="5" width="17.25" customWidth="1"/>
+    <col min="6" max="6" width="18.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6">
+      <c r="B1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="2:6">
+      <c r="B2" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6">
+      <c r="B3" s="4"/>
+      <c r="C3" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6">
+      <c r="B4" s="5"/>
+      <c r="C4" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>